--- a/comp project game maps.xlsx
+++ b/comp project game maps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5a1e1b85d466ce6/Documents/GitHub/computer-project-class12-maze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D205A31-0F81-4496-AB75-05C18F68204C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{4D205A31-0F81-4496-AB75-05C18F68204C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97443274-4D77-4A76-9748-667BB8FD24E3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{20E54680-1489-464D-92E9-A52B41D9681F}"/>
+    <workbookView xWindow="34275" yWindow="1380" windowWidth="14400" windowHeight="11760" activeTab="2" xr2:uid="{20E54680-1489-464D-92E9-A52B41D9681F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,8 +83,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -144,11 +150,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -177,6 +241,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F985E702-81AD-4F7D-B3E2-10CDC0707225}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:O8"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D5" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,12 +1453,459 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1653F36-3B60-448F-AAE6-689AAD7335BF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="20" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>